--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,12 +534,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
@@ -560,10 +555,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70.87</v>
-      </c>
-      <c r="E2" t="n">
-        <v>70.87</v>
+        <v>141.73</v>
       </c>
     </row>
     <row r="3">
@@ -577,9 +569,6 @@
       <c r="D3" t="n">
         <v>38.56</v>
       </c>
-      <c r="E3" t="n">
-        <v>38.56</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
@@ -590,10 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -607,9 +593,6 @@
       <c r="D5" t="n">
         <v>55.4</v>
       </c>
-      <c r="E5" t="n">
-        <v>55.4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -626,9 +609,6 @@
       <c r="D6" t="n">
         <v>50</v>
       </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -643,10 +623,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>274.33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>274.33</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8">
@@ -660,9 +637,6 @@
       <c r="D8" t="n">
         <v>630</v>
       </c>
-      <c r="E8" t="n">
-        <v>630</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -673,10 +647,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75.18000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>75.18000000000001</v>
+        <v>150.36</v>
       </c>
     </row>
     <row r="10">
@@ -692,9 +663,6 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100.32</v>
-      </c>
-      <c r="E10" t="n">
         <v>100.32</v>
       </c>
     </row>
@@ -709,9 +677,6 @@
       <c r="D11" t="n">
         <v>30</v>
       </c>
-      <c r="E11" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
@@ -728,9 +693,6 @@
       <c r="D12" t="n">
         <v>130</v>
       </c>
-      <c r="E12" t="n">
-        <v>130</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
@@ -747,9 +709,6 @@
       <c r="D13" t="n">
         <v>1185.57</v>
       </c>
-      <c r="E13" t="n">
-        <v>1185.57</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
@@ -764,10 +723,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82.34999999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>82.34999999999999</v>
+        <v>1070.56</v>
       </c>
     </row>
     <row r="15">
@@ -781,9 +737,6 @@
       <c r="D15" t="n">
         <v>4.5</v>
       </c>
-      <c r="E15" t="n">
-        <v>4.5</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
@@ -798,10 +751,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33.82</v>
-      </c>
-      <c r="E16" t="n">
-        <v>33.82</v>
+        <v>135.26</v>
       </c>
     </row>
     <row r="17">
@@ -813,10 +763,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.88</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="18">
@@ -830,9 +777,6 @@
       <c r="D18" t="n">
         <v>5.5</v>
       </c>
-      <c r="E18" t="n">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
@@ -847,10 +791,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="E19" t="n">
-        <v>22.68</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="20">
@@ -864,9 +805,6 @@
       <c r="D20" t="n">
         <v>116</v>
       </c>
-      <c r="E20" t="n">
-        <v>116</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
@@ -881,10 +819,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="E21" t="n">
-        <v>35.98</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="22">
@@ -902,9 +837,6 @@
       <c r="D22" t="n">
         <v>10</v>
       </c>
-      <c r="E22" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n"/>
@@ -919,10 +851,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>121.78</v>
-      </c>
-      <c r="E23" t="n">
-        <v>121.78</v>
+        <v>243.56</v>
       </c>
     </row>
     <row r="24">
@@ -940,9 +869,6 @@
       <c r="D24" t="n">
         <v>24</v>
       </c>
-      <c r="E24" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n"/>
@@ -957,10 +883,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>108.51</v>
-      </c>
-      <c r="E25" t="n">
-        <v>108.51</v>
+        <v>542.5599999999999</v>
       </c>
     </row>
     <row r="26">
@@ -974,9 +897,6 @@
       <c r="D26" t="n">
         <v>533</v>
       </c>
-      <c r="E26" t="n">
-        <v>533</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n"/>
@@ -987,10 +907,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>86.09</v>
-      </c>
-      <c r="E27" t="n">
-        <v>86.09</v>
+        <v>344.36</v>
       </c>
     </row>
     <row r="28">
@@ -1002,10 +919,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63.79</v>
-      </c>
-      <c r="E28" t="n">
-        <v>63.79</v>
+        <v>255.16</v>
       </c>
     </row>
     <row r="29">
@@ -1017,10 +931,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>45.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -1034,9 +945,6 @@
       <c r="D30" t="n">
         <v>54.9</v>
       </c>
-      <c r="E30" t="n">
-        <v>54.9</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1047,10 +955,7 @@
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n"/>
       <c r="D31" t="n">
-        <v>104.54</v>
-      </c>
-      <c r="E31" t="n">
-        <v>104.54</v>
+        <v>7004.4</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,12 +1005,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
@@ -1126,10 +1026,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>272</v>
-      </c>
-      <c r="E2" t="n">
-        <v>272</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
@@ -1145,9 +1042,6 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1060.05</v>
-      </c>
-      <c r="E3" t="n">
         <v>1060.05</v>
       </c>
     </row>
@@ -1162,9 +1056,6 @@
       <c r="D4" t="n">
         <v>1028.81</v>
       </c>
-      <c r="E4" t="n">
-        <v>1028.81</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
@@ -1181,9 +1072,6 @@
       <c r="D5" t="n">
         <v>52.36</v>
       </c>
-      <c r="E5" t="n">
-        <v>52.36</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -1198,9 +1086,6 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1213,10 +1098,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>394.29</v>
-      </c>
-      <c r="E7" t="n">
-        <v>394.29</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="8">
@@ -1228,10 +1110,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>128</v>
-      </c>
-      <c r="E8" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -1247,9 +1126,6 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>635</v>
-      </c>
-      <c r="E9" t="n">
         <v>635</v>
       </c>
     </row>
@@ -1264,9 +1140,6 @@
       <c r="D10" t="n">
         <v>635</v>
       </c>
-      <c r="E10" t="n">
-        <v>635</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
@@ -1279,9 +1152,6 @@
       <c r="D11" t="n">
         <v>635</v>
       </c>
-      <c r="E11" t="n">
-        <v>635</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
@@ -1294,9 +1164,6 @@
       <c r="D12" t="n">
         <v>635</v>
       </c>
-      <c r="E12" t="n">
-        <v>635</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
@@ -1311,10 +1178,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="E13" t="n">
-        <v>28.36</v>
+        <v>226.89</v>
       </c>
     </row>
     <row r="14">
@@ -1328,9 +1192,6 @@
       <c r="D14" t="n">
         <v>6.2</v>
       </c>
-      <c r="E14" t="n">
-        <v>6.2</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
@@ -1345,10 +1206,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
-      </c>
-      <c r="E15" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -1360,10 +1218,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>132.5</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17">
@@ -1379,10 +1234,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1394,10 +1246,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>460</v>
-      </c>
-      <c r="E18" t="n">
-        <v>460</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19">
@@ -1409,10 +1258,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1424,10 +1270,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54.42</v>
-      </c>
-      <c r="E20" t="n">
-        <v>54.42</v>
+        <v>326.5</v>
       </c>
     </row>
     <row r="21">
@@ -1439,10 +1282,7 @@
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n"/>
       <c r="D21" t="n">
-        <v>228.77</v>
-      </c>
-      <c r="E21" t="n">
-        <v>228.77</v>
+        <v>10980.81</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,12 +1331,7 @@
       </c>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>All</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
@@ -1517,10 +1352,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>272</v>
-      </c>
-      <c r="E2" t="n">
-        <v>272</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
@@ -1536,9 +1368,6 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1060.05</v>
-      </c>
-      <c r="E3" t="n">
         <v>1060.05</v>
       </c>
     </row>
@@ -1553,9 +1382,6 @@
       <c r="D4" t="n">
         <v>1028.81</v>
       </c>
-      <c r="E4" t="n">
-        <v>1028.81</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n"/>
@@ -1572,9 +1398,6 @@
       <c r="D5" t="n">
         <v>52.36</v>
       </c>
-      <c r="E5" t="n">
-        <v>52.36</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n"/>
@@ -1589,9 +1412,6 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1604,10 +1424,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>394.29</v>
-      </c>
-      <c r="E7" t="n">
-        <v>394.29</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1436,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>128</v>
-      </c>
-      <c r="E8" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -1638,9 +1452,6 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>635</v>
-      </c>
-      <c r="E9" t="n">
         <v>635</v>
       </c>
     </row>
@@ -1655,9 +1466,6 @@
       <c r="D10" t="n">
         <v>635</v>
       </c>
-      <c r="E10" t="n">
-        <v>635</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
@@ -1670,9 +1478,6 @@
       <c r="D11" t="n">
         <v>635</v>
       </c>
-      <c r="E11" t="n">
-        <v>635</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n"/>
@@ -1685,9 +1490,6 @@
       <c r="D12" t="n">
         <v>635</v>
       </c>
-      <c r="E12" t="n">
-        <v>635</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
@@ -1702,10 +1504,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="E13" t="n">
-        <v>28.36</v>
+        <v>226.89</v>
       </c>
     </row>
     <row r="14">
@@ -1719,9 +1518,6 @@
       <c r="D14" t="n">
         <v>6.2</v>
       </c>
-      <c r="E14" t="n">
-        <v>6.2</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n"/>
@@ -1736,10 +1532,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
-      </c>
-      <c r="E15" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -1751,10 +1544,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>132.5</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17">
@@ -1770,10 +1560,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1785,10 +1572,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>460</v>
-      </c>
-      <c r="E18" t="n">
-        <v>460</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19">
@@ -1800,10 +1584,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1815,10 +1596,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54.42</v>
-      </c>
-      <c r="E20" t="n">
-        <v>54.42</v>
+        <v>326.5</v>
       </c>
     </row>
     <row r="21">
@@ -1830,10 +1608,7 @@
       <c r="B21" s="4" t="inlineStr"/>
       <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>228.77</v>
-      </c>
-      <c r="E21" t="n">
-        <v>228.77</v>
+        <v>10980.81</v>
       </c>
     </row>
     <row r="26">
@@ -1854,12 +1629,7 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>All</t>
+          <t>Euro</t>
         </is>
       </c>
     </row>
@@ -1880,10 +1650,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>70.87</v>
-      </c>
-      <c r="E27" t="n">
-        <v>70.87</v>
+        <v>141.73</v>
       </c>
     </row>
     <row r="28">
@@ -1897,9 +1664,6 @@
       <c r="D28" t="n">
         <v>38.56</v>
       </c>
-      <c r="E28" t="n">
-        <v>38.56</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n"/>
@@ -1910,10 +1674,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
-      </c>
-      <c r="E29" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -1927,9 +1688,6 @@
       <c r="D30" t="n">
         <v>55.4</v>
       </c>
-      <c r="E30" t="n">
-        <v>55.4</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>
@@ -1946,9 +1704,6 @@
       <c r="D31" t="n">
         <v>50</v>
       </c>
-      <c r="E31" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n"/>
@@ -1963,10 +1718,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>274.33</v>
-      </c>
-      <c r="E32" t="n">
-        <v>274.33</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33">
@@ -1980,9 +1732,6 @@
       <c r="D33" t="n">
         <v>630</v>
       </c>
-      <c r="E33" t="n">
-        <v>630</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n"/>
@@ -1993,10 +1742,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>75.18000000000001</v>
-      </c>
-      <c r="E34" t="n">
-        <v>75.18000000000001</v>
+        <v>150.36</v>
       </c>
     </row>
     <row r="35">
@@ -2012,9 +1758,6 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>100.32</v>
-      </c>
-      <c r="E35" t="n">
         <v>100.32</v>
       </c>
     </row>
@@ -2029,9 +1772,6 @@
       <c r="D36" t="n">
         <v>30</v>
       </c>
-      <c r="E36" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n"/>
@@ -2048,9 +1788,6 @@
       <c r="D37" t="n">
         <v>130</v>
       </c>
-      <c r="E37" t="n">
-        <v>130</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n"/>
@@ -2067,9 +1804,6 @@
       <c r="D38" t="n">
         <v>1185.57</v>
       </c>
-      <c r="E38" t="n">
-        <v>1185.57</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n"/>
@@ -2084,10 +1818,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>82.34999999999999</v>
-      </c>
-      <c r="E39" t="n">
-        <v>82.34999999999999</v>
+        <v>1070.56</v>
       </c>
     </row>
     <row r="40">
@@ -2101,9 +1832,6 @@
       <c r="D40" t="n">
         <v>4.5</v>
       </c>
-      <c r="E40" t="n">
-        <v>4.5</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n"/>
@@ -2118,10 +1846,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>33.82</v>
-      </c>
-      <c r="E41" t="n">
-        <v>33.82</v>
+        <v>135.26</v>
       </c>
     </row>
     <row r="42">
@@ -2133,10 +1858,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6.88</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="43">
@@ -2150,9 +1872,6 @@
       <c r="D43" t="n">
         <v>5.5</v>
       </c>
-      <c r="E43" t="n">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n"/>
@@ -2167,10 +1886,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="E44" t="n">
-        <v>22.68</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="45">
@@ -2184,9 +1900,6 @@
       <c r="D45" t="n">
         <v>116</v>
       </c>
-      <c r="E45" t="n">
-        <v>116</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n"/>
@@ -2201,10 +1914,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="E46" t="n">
-        <v>35.98</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="47">
@@ -2222,9 +1932,6 @@
       <c r="D47" t="n">
         <v>10</v>
       </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n"/>
@@ -2239,10 +1946,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>121.78</v>
-      </c>
-      <c r="E48" t="n">
-        <v>121.78</v>
+        <v>243.56</v>
       </c>
     </row>
     <row r="49">
@@ -2260,9 +1964,6 @@
       <c r="D49" t="n">
         <v>24</v>
       </c>
-      <c r="E49" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n"/>
@@ -2277,10 +1978,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>108.51</v>
-      </c>
-      <c r="E50" t="n">
-        <v>108.51</v>
+        <v>542.5599999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2294,9 +1992,6 @@
       <c r="D51" t="n">
         <v>533</v>
       </c>
-      <c r="E51" t="n">
-        <v>533</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n"/>
@@ -2307,10 +2002,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>86.09</v>
-      </c>
-      <c r="E52" t="n">
-        <v>86.09</v>
+        <v>344.36</v>
       </c>
     </row>
     <row r="53">
@@ -2322,10 +2014,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>63.79</v>
-      </c>
-      <c r="E53" t="n">
-        <v>63.79</v>
+        <v>255.16</v>
       </c>
     </row>
     <row r="54">
@@ -2337,10 +2026,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="E54" t="n">
-        <v>45.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
@@ -2354,9 +2040,6 @@
       <c r="D55" t="n">
         <v>54.9</v>
       </c>
-      <c r="E55" t="n">
-        <v>54.9</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -2367,10 +2050,7 @@
       <c r="B56" s="4" t="inlineStr"/>
       <c r="C56" s="4" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>104.54</v>
-      </c>
-      <c r="E56" t="n">
-        <v>104.54</v>
+        <v>7004.4</v>
       </c>
     </row>
   </sheetData>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -949,7 +949,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Uscite gennaio</t>
         </is>
       </c>
       <c r="B31" s="1" t="n"/>
@@ -1276,7 +1276,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Entrate gennaio</t>
         </is>
       </c>
       <c r="B21" s="1" t="n"/>
@@ -1602,7 +1602,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Entrate gennaio</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Uscite gennaio</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr"/>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -1305,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A6:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,170 +1313,106 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D7" t="n">
         <v>544</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Congrua</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Congrua fra Giacomo</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1060.05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Congrua fra Gianni</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1028.81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Interessi</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Interessi</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>52.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Offerte</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Offerta eccedenze Messa</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Offerte libere</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2760</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Presepio</t>
+          <t>Congrua fra Giacomo</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>256</v>
+        <v>1060.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Pensioni</t>
-        </is>
-      </c>
+      <c r="B9" s="4" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Fr Tommaso Bellesi</t>
+          <t>Congrua fra Gianni</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>635</v>
+        <v>1028.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Fr. Anastasio Artegiani</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>635</v>
+        <v>52.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Fr. Giulio Criminesi</t>
+          <t>Offerta eccedenze Messa</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>635</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1484,55 +1420,51 @@
       <c r="B12" s="4" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Fr. Mario Pigini</t>
+          <t>Offerte libere</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>635</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Salute</t>
-        </is>
-      </c>
+      <c r="B13" s="4" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Presepio</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>226.89</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Sanitaria</t>
+          <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.2</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Servizi religiosi</t>
-        </is>
-      </c>
+      <c r="B15" s="4" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Loreto</t>
+          <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>600</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16">
@@ -1540,39 +1472,39 @@
       <c r="B16" s="4" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Servizi religiosi</t>
+          <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>530</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Vendite varie</t>
-        </is>
-      </c>
+      <c r="B17" s="4" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Marmellata</t>
+          <t>Fr. Mario Pigini</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Mercatino convento</t>
+          <t>Medicine</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>920</v>
+        <v>226.89</v>
       </c>
     </row>
     <row r="19">
@@ -1580,145 +1512,145 @@
       <c r="B19" s="4" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Sanitaria</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Mercatino convento</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>326.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>Entrate gennaio</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>10980.81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
+          <t>Entrate gennaio</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>10980.81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>141.73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>38.56</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Materiale elettrico</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Stampante_Fotocopiatrice</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Acquisti: Chiesa</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Ceri e Candele</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Acquisti: Orto, Animali</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Attrezzi agricoli manutenzione</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>823</v>
       </c>
     </row>
     <row r="33">
@@ -1726,11 +1658,11 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Manutenzione api</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>630</v>
+        <v>38.56</v>
       </c>
     </row>
     <row r="34">
@@ -1738,155 +1670,155 @@
       <c r="B34" s="4" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Medicine animali - piante</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>150.36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
+      <c r="B35" s="4" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>100.32</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
-      <c r="B36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Libri</t>
+          <t>Ceri e Candele</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Elargizioni</t>
+          <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Beneficenza 5%</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>130</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n"/>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Energia Elettrica</t>
-        </is>
-      </c>
+      <c r="B38" s="4" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>ENEL</t>
+          <t>Manutenzione api</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1185.57</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n"/>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Ferie e Viaggi</t>
-        </is>
-      </c>
+      <c r="B39" s="4" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Medicine animali - piante</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1070.56</v>
+        <v>150.36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Viaggi-Autostrada-Parcheggio</t>
+          <t>Abbonamenti</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.5</v>
+        <v>100.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n"/>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Igiene</t>
-        </is>
-      </c>
+      <c r="B41" s="4" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Detersivi</t>
+          <t>Libri</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>135.26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n"/>
-      <c r="B42" s="4" t="n"/>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Igiene personale</t>
+          <t>Beneficenza 5%</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13.75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n"/>
-      <c r="B43" s="4" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Lavanderia</t>
+          <t>ENEL</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5.5</v>
+        <v>1185.57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Imposte</t>
+          <t>Ferie e Viaggi</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Imposte bancarie</t>
+          <t>Carburante</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>113.4</v>
+        <v>1070.56</v>
       </c>
     </row>
     <row r="45">
@@ -1894,182 +1826,250 @@
       <c r="B45" s="4" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Passaporto</t>
+          <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>116</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Posta e cancelleria</t>
+          <t>Igiene</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Cancelleria</t>
+          <t>Detersivi</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>71.95</v>
+        <v>135.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n"/>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Telefono</t>
-        </is>
-      </c>
+      <c r="B47" s="4" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Scheda telefonica</t>
+          <t>Igiene personale</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n"/>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Veicoli a motore</t>
-        </is>
-      </c>
+      <c r="B48" s="4" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Bollo Auto</t>
+          <t>Lavanderia</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>243.56</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Vestiario</t>
+          <t>Imposte</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Sandali - scarpe</t>
+          <t>Imposte bancarie</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n"/>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Vitto</t>
-        </is>
-      </c>
+      <c r="B50" s="4" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Alimentari</t>
+          <t>Passaporto</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>542.5599999999999</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n"/>
-      <c r="B51" s="4" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Bartolazzi</t>
+          <t>Cancelleria</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>533</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n"/>
-      <c r="B52" s="4" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Carne</t>
+          <t>Scheda telefonica</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>344.36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n"/>
-      <c r="B53" s="4" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Frutta e Verdura</t>
+          <t>Bollo Auto</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>255.16</v>
+        <v>243.56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n"/>
-      <c r="B54" s="4" t="n"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Latte - Latticini</t>
+          <t>Sandali - scarpe</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n"/>
-      <c r="B55" s="4" t="n"/>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>542.5599999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Bartolazzi</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>344.36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>255.16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D60" t="n">
         <v>54.9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>Uscite gennaio</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr"/>
-      <c r="C56" s="4" t="inlineStr"/>
-      <c r="D56" t="n">
+      <c r="B61" s="4" t="inlineStr"/>
+      <c r="C61" s="4" t="inlineStr"/>
+      <c r="D61" t="n">
         <v>7004.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A27:A55"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A7:A25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A32:A60"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B55:B60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -1305,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D61"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,106 +1313,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>52.36</v>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
+      <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Categoria</t>
+          <t>Offerte</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Entrate</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Collette-Chiesa</t>
-        </is>
-      </c>
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Cassette</t>
+          <t>Offerte libere</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>544</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Congrua</t>
-        </is>
-      </c>
+      <c r="B8" s="4" t="n"/>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Congrua fra Giacomo</t>
+          <t>Presepio</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1060.05</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Congrua fra Gianni</t>
+          <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1028.81</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Interessi</t>
-        </is>
-      </c>
+      <c r="B10" s="4" t="n"/>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52.36</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Offerte</t>
-        </is>
-      </c>
+      <c r="B11" s="4" t="n"/>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Offerta eccedenze Messa</t>
+          <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12">
@@ -1420,51 +1484,55 @@
       <c r="B12" s="4" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Offerte libere</t>
+          <t>Fr. Mario Pigini</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2760</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Presepio</t>
+          <t>Medicine</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>256</v>
+        <v>226.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Pensioni</t>
-        </is>
-      </c>
+      <c r="B14" s="4" t="n"/>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Fr Tommaso Bellesi</t>
+          <t>Sanitaria</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>635</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Fr. Anastasio Artegiani</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>635</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -1472,39 +1540,39 @@
       <c r="B16" s="4" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Fr. Giulio Criminesi</t>
+          <t>Servizi religiosi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>635</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Fr. Mario Pigini</t>
+          <t>Marmellata</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>635</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Salute</t>
-        </is>
-      </c>
+      <c r="B18" s="4" t="n"/>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Mercatino convento</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>226.89</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19">
@@ -1512,145 +1580,145 @@
       <c r="B19" s="4" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Sanitaria</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Servizi religiosi</t>
-        </is>
-      </c>
+      <c r="B20" s="4" t="n"/>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Loreto</t>
+          <t>Vino</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>600</v>
+        <v>326.5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Servizi religiosi</t>
-        </is>
-      </c>
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Entrate gennaio</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Vendite varie</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Marmellata</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Mercatino convento</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Pasta</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Vino</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>326.5</v>
+        <v>10980.81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Entrate gennaio</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" t="n">
-        <v>10980.81</v>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>141.73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Stampante_Fotocopiatrice</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>55.4</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
+      <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Categoria</t>
+          <t>Acquisti: Chiesa</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="n"/>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Acquisti convento</t>
+          <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Casalinghi</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>141.73</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33">
@@ -1658,11 +1726,11 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Manutenzione api</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>38.56</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34">
@@ -1670,155 +1738,155 @@
       <c r="B34" s="4" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Medicine animali - piante</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>40</v>
+        <v>150.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Stampante_Fotocopiatrice</t>
+          <t>Abbonamenti</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>55.4</v>
+        <v>100.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Acquisti: Chiesa</t>
-        </is>
-      </c>
+      <c r="B36" s="4" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Ceri e Candele</t>
+          <t>Libri</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Acquisti: Orto, Animali</t>
+          <t>Elargizioni</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Attrezzi agricoli manutenzione</t>
+          <t>Beneficenza 5%</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>823</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n"/>
-      <c r="B38" s="4" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Manutenzione api</t>
+          <t>ENEL</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>630</v>
+        <v>1185.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n"/>
-      <c r="B39" s="4" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Medicine animali - piante</t>
+          <t>Carburante</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>150.36</v>
+        <v>1070.56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
+      <c r="B40" s="4" t="n"/>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>100.32</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n"/>
-      <c r="B41" s="4" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Libri</t>
+          <t>Detersivi</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v>135.26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n"/>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Elargizioni</t>
-        </is>
-      </c>
+      <c r="B42" s="4" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Beneficenza 5%</t>
+          <t>Igiene personale</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>130</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Energia Elettrica</t>
-        </is>
-      </c>
+      <c r="B43" s="4" t="n"/>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>ENEL</t>
+          <t>Lavanderia</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1185.57</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Ferie e Viaggi</t>
+          <t>Imposte</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Imposte bancarie</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1070.56</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="45">
@@ -1826,250 +1894,182 @@
       <c r="B45" s="4" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Viaggi-Autostrada-Parcheggio</t>
+          <t>Passaporto</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Igiene</t>
+          <t>Posta e cancelleria</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Detersivi</t>
+          <t>Cancelleria</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>135.26</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n"/>
-      <c r="B47" s="4" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Igiene personale</t>
+          <t>Scheda telefonica</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n"/>
-      <c r="B48" s="4" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Lavanderia</t>
+          <t>Bollo Auto</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5.5</v>
+        <v>243.56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Imposte</t>
+          <t>Vestiario</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Imposte bancarie</t>
+          <t>Sandali - scarpe</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>113.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n"/>
-      <c r="B50" s="4" t="n"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Passaporto</t>
+          <t>Alimentari</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>116</v>
+        <v>542.5599999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n"/>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Posta e cancelleria</t>
-        </is>
-      </c>
+      <c r="B51" s="4" t="n"/>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Cancelleria</t>
+          <t>Bartolazzi</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>71.95</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Telefono</t>
-        </is>
-      </c>
+      <c r="B52" s="4" t="n"/>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Scheda telefonica</t>
+          <t>Carne</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>344.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n"/>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Veicoli a motore</t>
-        </is>
-      </c>
+      <c r="B53" s="4" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Bollo Auto</t>
+          <t>Frutta e Verdura</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>243.56</v>
+        <v>255.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n"/>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Vestiario</t>
-        </is>
-      </c>
+      <c r="B54" s="4" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Sandali - scarpe</t>
+          <t>Latte - Latticini</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n"/>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Vitto</t>
-        </is>
-      </c>
+      <c r="B55" s="4" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Alimentari</t>
+          <t>Pesce</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>542.5599999999999</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="4" t="n"/>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Bartolazzi</t>
-        </is>
-      </c>
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Uscite gennaio</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr"/>
+      <c r="C56" s="4" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n"/>
-      <c r="B57" s="4" t="n"/>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Carne</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>344.36</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="n"/>
-      <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>Frutta e Verdura</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>255.16</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="n"/>
-      <c r="B59" s="4" t="n"/>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Latte - Latticini</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="n"/>
-      <c r="B60" s="4" t="n"/>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>Pesce</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="inlineStr">
-        <is>
-          <t>Uscite gennaio</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="inlineStr"/>
-      <c r="C61" s="4" t="inlineStr"/>
-      <c r="D61" t="n">
         <v>7004.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A7:A25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A32:A60"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A27:A55"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B50:B55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -949,7 +949,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Uscite gennaio</t>
+          <t>TOTALE</t>
         </is>
       </c>
       <c r="B31" s="1" t="n"/>
@@ -1276,7 +1276,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Entrate gennaio</t>
+          <t>TOTALE</t>
         </is>
       </c>
       <c r="B21" s="1" t="n"/>
@@ -1602,7 +1602,7 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Entrate gennaio</t>
+          <t>TOTALE</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Uscite gennaio</t>
+          <t>TOTALE</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr"/>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -9,6 +9,18 @@
     <sheet name="gennaio_uscite" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="gennaio_entrate" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="multiple" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Gennaio" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Febbraio" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Marzo" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Aprile" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Maggio" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Giugno" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Luglio" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Agosto" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Settembre" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Ottobre" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Novembre" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Dicembre" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -133,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -143,6 +155,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,6 +987,528 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1356,7 +1892,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -1372,8 +1908,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -1384,7 +1920,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -1400,7 +1936,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -1416,8 +1952,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -1428,8 +1964,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
@@ -1440,7 +1976,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -1456,8 +1992,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -1468,8 +2004,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -1480,8 +2016,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -1492,7 +2028,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -1508,8 +2044,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
@@ -1520,7 +2056,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -1536,8 +2072,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -1548,7 +2084,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -1564,8 +2100,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -1576,8 +2112,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -1588,8 +2124,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -1654,8 +2190,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -1666,8 +2202,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -1678,8 +2214,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="5" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
@@ -1690,7 +2226,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -1706,7 +2242,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -1722,8 +2258,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n"/>
-      <c r="B38" s="4" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -1734,8 +2270,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n"/>
-      <c r="B39" s="4" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
@@ -1746,7 +2282,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -1762,8 +2298,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n"/>
-      <c r="B41" s="4" t="n"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="5" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -1774,7 +2310,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -1790,7 +2326,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -1806,7 +2342,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -1822,8 +2358,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="B45" s="4" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -1834,7 +2370,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -1850,8 +2386,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n"/>
-      <c r="B47" s="4" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -1862,8 +2398,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n"/>
-      <c r="B48" s="4" t="n"/>
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="5" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -1874,7 +2410,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -1890,8 +2426,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n"/>
-      <c r="B50" s="4" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
@@ -1902,7 +2438,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -1918,7 +2454,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -1934,7 +2470,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -1950,7 +2486,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -1966,7 +2502,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -1982,8 +2518,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="4" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
@@ -1994,8 +2530,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n"/>
-      <c r="B57" s="4" t="n"/>
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -2006,8 +2542,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n"/>
-      <c r="B58" s="4" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -2018,8 +2554,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n"/>
-      <c r="B59" s="4" t="n"/>
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -2030,8 +2566,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n"/>
-      <c r="B60" s="4" t="n"/>
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -2073,4 +2609,4096 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>52.36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Presepio</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>226.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Sanitaria</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Mercatino convento</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>326.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>10980.81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>141.73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Stampante_Fotocopiatrice</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Attrezzi agricoli manutenzione</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione api</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Medicine animali - piante</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>150.36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamenti</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>100.32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1185.57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1070.56</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>135.26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="5" t="n"/>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Passaporto</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>71.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Scheda telefonica</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>243.56</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Sandali - scarpe</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>542.5599999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Bartolazzi</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>344.36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>255.16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr"/>
+      <c r="C61" s="4" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>7004.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A32:A60"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B55:B60"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Offerte ofs</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>259.35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Ticket - esami</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Sussidi</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>AGEA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>507.78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>8036.79</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Cantina</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1452.46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>512.58</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Materiale edile</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione api</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamenti</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>82.04000000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1179.12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>917.17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="5" t="n"/>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Canone RAI</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>203.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Indumenti</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>248.66</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Bibite e gelati</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>305.45</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr"/>
+      <c r="C57" s="4" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>11009.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A24"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A32:A56"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B56"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Mariano</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1044.43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Tridui</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>116.26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Occhiali</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Ticket - esami</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Mercatino convento</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>405.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>10704.95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>322.58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1055.74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1539.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Imposte varie</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Boscaiolo</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Edif illuminazione</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4499.59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Restauratore</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Sandali - scarpe</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>954.62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>615.72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>274.83</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>175.26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Pane, Uova, Farina</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>382.95</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="5" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr"/>
+      <c r="C55" s="4" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>14659.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A27"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A32:A54"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B49:B54"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>953.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>924.54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Benedizione case</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Frittate</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>638.5700000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Tridui</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>81.61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Ticket - esami</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>11005.57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>152.94</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>665.97</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Offerte p.Orazio Capitolo</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Fiori</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Gasolio agricolo</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>564.4299999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="5" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione api</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Convegno Novizi</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>953.47</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>48.85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Muratore</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Rimborsi</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Diaria Novizi (manca umbria)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Fidoka istallazione +abbonam. 13 mesi</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="5" t="n"/>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Elettrauto</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="5" t="n"/>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Pompista</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Indumenti</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>376.35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>540.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>141.81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>137.18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Pane, Uova, Farina</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n"/>
+      <c r="B62" s="5" t="n"/>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>70.08</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr"/>
+      <c r="C63" s="4" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>40500.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A7:A26"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A32:A62"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B62"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Eredità</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>18316.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Frittate</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Feste Triennali</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>193.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>25950.34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>584.05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Attrezzi agricoli manutenzione</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Gasolio agricolo</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Semi, Ortaggi</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamenti</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>604.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1243.37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1527.51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Allarme museo</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>203.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte varie</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Idraulico</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Scheda telefonica</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>263.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="5" t="n"/>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>691.1900000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Bibite e gelati</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>84.83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Olio</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>104.16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr"/>
+      <c r="C59" s="4" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>9360.139999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A32:A58"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B58"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>3102.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>127.88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Fotocopiatrice+contr.assistenza</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Materiale edile</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>246.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Medicine animali - piante</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>194.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>361.82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Edif illuminazione</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>565.74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>4792.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -155,8 +155,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -1908,8 +1908,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -1952,8 +1952,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -2016,8 +2016,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -2028,7 +2028,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="5" t="n"/>
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="6" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
@@ -2056,7 +2056,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -2100,8 +2100,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -2112,8 +2112,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -2124,8 +2124,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -2202,8 +2202,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -2214,8 +2214,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -2258,8 +2258,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="5" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -2270,8 +2270,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="6" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
@@ -2282,7 +2282,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="5" t="n"/>
+      <c r="A41" s="5" t="n"/>
+      <c r="B41" s="6" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -2342,7 +2342,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -2358,8 +2358,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -2370,7 +2370,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -2386,8 +2386,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
+      <c r="B47" s="5" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="5" t="n"/>
+      <c r="A48" s="5" t="n"/>
+      <c r="B48" s="6" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -2426,8 +2426,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="5" t="n"/>
+      <c r="A50" s="5" t="n"/>
+      <c r="B50" s="6" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -2454,7 +2454,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -2486,7 +2486,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -2518,8 +2518,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
@@ -2530,8 +2530,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
+      <c r="B57" s="5" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -2542,8 +2542,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -2554,8 +2554,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
+      <c r="A59" s="5" t="n"/>
+      <c r="B59" s="5" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -2566,8 +2566,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
-      <c r="B60" s="5" t="n"/>
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -2684,8 +2684,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -2728,8 +2728,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -2740,8 +2740,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -2780,8 +2780,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -2792,8 +2792,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -2820,8 +2820,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="5" t="n"/>
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="6" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
@@ -2832,7 +2832,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2848,8 +2848,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -2888,8 +2888,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -2900,8 +2900,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -2966,8 +2966,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -2978,8 +2978,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -2990,8 +2990,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
@@ -3002,7 +3002,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -3018,7 +3018,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3034,8 +3034,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="5" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -3046,8 +3046,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="6" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
@@ -3058,7 +3058,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3074,8 +3074,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="5" t="n"/>
+      <c r="A41" s="5" t="n"/>
+      <c r="B41" s="6" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -3086,7 +3086,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -3102,7 +3102,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -3134,8 +3134,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -3146,7 +3146,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -3162,8 +3162,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
+      <c r="B47" s="5" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -3174,8 +3174,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="5" t="n"/>
+      <c r="A48" s="5" t="n"/>
+      <c r="B48" s="6" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -3202,8 +3202,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="5" t="n"/>
+      <c r="A50" s="5" t="n"/>
+      <c r="B50" s="6" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -3230,7 +3230,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -3246,7 +3246,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -3262,7 +3262,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -3278,7 +3278,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -3294,8 +3294,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
@@ -3306,8 +3306,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
+      <c r="B57" s="5" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -3318,8 +3318,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -3330,8 +3330,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
+      <c r="A59" s="5" t="n"/>
+      <c r="B59" s="5" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -3342,8 +3342,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
-      <c r="B60" s="5" t="n"/>
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -3444,7 +3444,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -3460,8 +3460,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -3488,8 +3488,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
@@ -3500,8 +3500,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -3512,8 +3512,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Offerte ofs</t>
@@ -3524,7 +3524,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -3540,8 +3540,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -3552,8 +3552,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -3564,8 +3564,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -3592,8 +3592,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="5" t="n"/>
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="6" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
@@ -3604,7 +3604,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -3620,8 +3620,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Sussidi</t>
@@ -3648,7 +3648,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -3664,8 +3664,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -3730,8 +3730,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -3742,8 +3742,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -3754,8 +3754,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="5" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Materiale edile</t>
@@ -3766,8 +3766,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="5" t="n"/>
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="6" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -3778,7 +3778,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3794,7 +3794,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3810,8 +3810,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="6" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -3822,7 +3822,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -3838,7 +3838,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -3854,7 +3854,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -3870,8 +3870,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="5" t="n"/>
+      <c r="A43" s="5" t="n"/>
+      <c r="B43" s="6" t="n"/>
       <c r="C43" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -3882,7 +3882,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -3898,8 +3898,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -3910,7 +3910,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -3926,8 +3926,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="5" t="n"/>
+      <c r="A47" s="5" t="n"/>
+      <c r="B47" s="6" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
@@ -3938,7 +3938,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -3954,7 +3954,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -3970,8 +3970,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="5" t="n"/>
+      <c r="A50" s="5" t="n"/>
+      <c r="B50" s="6" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Meccanico</t>
@@ -3982,7 +3982,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -3998,7 +3998,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4014,8 +4014,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
+      <c r="B53" s="5" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
@@ -4026,8 +4026,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="5" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -4038,8 +4038,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
+      <c r="B55" s="5" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -4050,8 +4050,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
-      <c r="B56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -4152,7 +4152,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -4168,8 +4168,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -4180,8 +4180,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="5" t="n"/>
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="6" t="n"/>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Mariano</t>
@@ -4192,7 +4192,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -4208,8 +4208,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
@@ -4220,8 +4220,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -4232,7 +4232,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -4248,8 +4248,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -4260,8 +4260,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -4272,8 +4272,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -4284,7 +4284,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -4300,7 +4300,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -4316,8 +4316,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="n"/>
       <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Occhiali</t>
@@ -4328,8 +4328,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
@@ -4340,7 +4340,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -4356,8 +4356,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -4368,7 +4368,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -4384,8 +4384,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -4396,8 +4396,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
       <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -4408,8 +4408,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
       <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -4474,8 +4474,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -4486,8 +4486,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -4498,7 +4498,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -4514,7 +4514,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -4546,7 +4546,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -4562,8 +4562,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="6" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -4574,7 +4574,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -4590,7 +4590,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -4606,8 +4606,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="5" t="n"/>
+      <c r="A42" s="5" t="n"/>
+      <c r="B42" s="6" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Imposte varie</t>
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -4634,8 +4634,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
+      <c r="B44" s="5" t="n"/>
       <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Edif illuminazione</t>
@@ -4646,8 +4646,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Restauratore</t>
@@ -4658,7 +4658,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -4674,7 +4674,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
       <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -4706,7 +4706,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4722,8 +4722,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
+      <c r="B50" s="5" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -4734,8 +4734,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
+      <c r="B51" s="5" t="n"/>
       <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -4746,8 +4746,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
+      <c r="B52" s="5" t="n"/>
       <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -4758,8 +4758,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
+      <c r="B53" s="5" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
@@ -4770,8 +4770,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
-      <c r="B54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -4870,7 +4870,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -4886,8 +4886,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -4930,8 +4930,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Benedizione case</t>
@@ -4942,8 +4942,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Frittate</t>
@@ -4954,8 +4954,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="5" t="n"/>
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="6" t="n"/>
       <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -4966,7 +4966,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
       <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -4982,8 +4982,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -4994,8 +4994,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -5006,8 +5006,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="5" t="n"/>
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="6" t="n"/>
       <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -5018,7 +5018,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -5034,7 +5034,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -5050,8 +5050,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5078,8 +5078,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5090,7 +5090,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -5106,8 +5106,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -5118,8 +5118,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
       <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -5184,8 +5184,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -5196,8 +5196,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -5208,8 +5208,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="5" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -5220,8 +5220,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="5" t="n"/>
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="6" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Offerte p.Orazio Capitolo</t>
@@ -5232,7 +5232,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -5248,8 +5248,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="5" t="n"/>
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Fiori</t>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -5276,8 +5276,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="5" t="n"/>
+      <c r="A40" s="5" t="n"/>
+      <c r="B40" s="6" t="n"/>
       <c r="C40" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -5288,7 +5288,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -5304,8 +5304,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="5" t="n"/>
+      <c r="A42" s="5" t="n"/>
+      <c r="B42" s="6" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -5316,7 +5316,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -5348,8 +5348,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -5360,7 +5360,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -5376,7 +5376,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
       <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -5392,7 +5392,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -5408,7 +5408,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -5424,7 +5424,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Rimborsi</t>
@@ -5440,7 +5440,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -5456,8 +5456,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="5" t="n"/>
+      <c r="A52" s="5" t="n"/>
+      <c r="B52" s="6" t="n"/>
       <c r="C52" s="4" t="inlineStr">
         <is>
           <t>TELECOM</t>
@@ -5468,7 +5468,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -5484,8 +5484,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="5" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Meccanico</t>
@@ -5496,8 +5496,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="5" t="n"/>
+      <c r="A55" s="5" t="n"/>
+      <c r="B55" s="6" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Pompista</t>
@@ -5508,7 +5508,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
       <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -5524,7 +5524,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
       <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -5540,8 +5540,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -5552,8 +5552,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
+      <c r="A59" s="5" t="n"/>
+      <c r="B59" s="5" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -5564,8 +5564,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -5576,8 +5576,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
+      <c r="A61" s="5" t="n"/>
+      <c r="B61" s="5" t="n"/>
       <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
@@ -5588,8 +5588,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="n"/>
-      <c r="B62" s="5" t="n"/>
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
       <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -5691,7 +5691,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -5707,8 +5707,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -5735,8 +5735,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Frittate</t>
@@ -5747,8 +5747,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
@@ -5759,8 +5759,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -5771,7 +5771,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -5787,8 +5787,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -5799,8 +5799,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -5811,8 +5811,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -5823,7 +5823,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -5839,7 +5839,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5871,8 +5871,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -5899,8 +5899,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -5965,8 +5965,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -5977,7 +5977,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
       <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -5993,8 +5993,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="5" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Gasolio agricolo</t>
@@ -6005,8 +6005,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="5" t="n"/>
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="6" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Semi, Ortaggi</t>
@@ -6017,7 +6017,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -6033,8 +6033,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="5" t="n"/>
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -6045,7 +6045,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -6061,7 +6061,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -6077,8 +6077,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
+      <c r="B41" s="5" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Carburante</t>
@@ -6089,8 +6089,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="5" t="n"/>
+      <c r="A42" s="5" t="n"/>
+      <c r="B42" s="6" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -6101,7 +6101,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -6117,8 +6117,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
+      <c r="B44" s="5" t="n"/>
       <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -6129,8 +6129,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -6141,7 +6141,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -6157,8 +6157,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="5" t="n"/>
+      <c r="A47" s="5" t="n"/>
+      <c r="B47" s="6" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Imposte varie</t>
@@ -6169,7 +6169,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -6185,7 +6185,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -6201,7 +6201,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -6217,8 +6217,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="5" t="n"/>
+      <c r="A51" s="5" t="n"/>
+      <c r="B51" s="6" t="n"/>
       <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Meccanico</t>
@@ -6229,7 +6229,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -6245,8 +6245,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
+      <c r="B53" s="5" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
@@ -6257,8 +6257,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="5" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -6269,8 +6269,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
+      <c r="B55" s="5" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -6281,8 +6281,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -6293,8 +6293,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
+      <c r="B57" s="5" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Olio</t>
@@ -6305,8 +6305,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
-      <c r="B58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -6407,7 +6407,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -6423,8 +6423,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -6435,8 +6435,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="5" t="n"/>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -6447,8 +6447,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="5" t="n"/>
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="6" t="n"/>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -6459,7 +6459,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -6475,7 +6475,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -6491,7 +6491,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -6561,8 +6561,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Fotocopiatrice+contr.assistenza</t>
@@ -6573,8 +6573,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale edile</t>
@@ -6585,7 +6585,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -6601,7 +6601,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -6633,7 +6633,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -6649,7 +6649,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -6665,7 +6665,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -2684,7 +2684,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="4" t="n"/>
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -2728,7 +2728,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="4" t="n"/>
       <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="4" t="n"/>
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="4" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -2768,7 +2768,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="4" t="n"/>
       <c r="B15" s="5" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
+      <c r="A16" s="4" t="n"/>
       <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="4" t="n"/>
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="4" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -2820,7 +2820,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="4" t="n"/>
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2848,7 +2848,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="4" t="n"/>
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="4" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="4" t="n"/>
       <c r="B23" s="5" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="4" t="n"/>
       <c r="B24" s="5" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
+      <c r="A25" s="4" t="n"/>
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
@@ -2912,23 +2912,27 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
-        </is>
-      </c>
+      <c r="A26" s="4" t="n"/>
       <c r="B26" s="4" t="inlineStr"/>
       <c r="C26" s="4" t="inlineStr"/>
       <c r="D26" t="n">
         <v>10980.81</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
+      <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Categoria</t>
@@ -2946,11 +2950,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="n"/>
       <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="4" t="n"/>
       <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A7:A25"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B13"/>
@@ -3382,6 +3382,7 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A7:A33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -155,8 +155,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -1908,8 +1908,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -1952,8 +1952,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -2016,8 +2016,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -2028,7 +2028,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="6" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
@@ -2056,7 +2056,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -2100,8 +2100,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -2112,8 +2112,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -2124,8 +2124,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -2202,8 +2202,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -2214,8 +2214,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="6" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="5" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -2258,8 +2258,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -2270,8 +2270,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="6" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
@@ -2282,7 +2282,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
-      <c r="B41" s="6" t="n"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="5" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -2342,7 +2342,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -2358,8 +2358,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -2370,7 +2370,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -2386,8 +2386,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
-      <c r="B47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
-      <c r="B48" s="6" t="n"/>
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="5" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -2426,8 +2426,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
-      <c r="B50" s="6" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -2454,7 +2454,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -2486,7 +2486,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -2518,8 +2518,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
-      <c r="B56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
@@ -2530,8 +2530,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
-      <c r="B57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -2542,8 +2542,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
-      <c r="B58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -2554,8 +2554,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
-      <c r="B59" s="5" t="n"/>
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -2566,8 +2566,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -2684,8 +2684,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -2728,8 +2728,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -2740,8 +2740,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -2780,8 +2780,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -2792,8 +2792,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -2820,8 +2820,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="6" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
@@ -2832,7 +2832,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2848,8 +2848,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -2888,8 +2888,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -2900,8 +2900,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -2912,27 +2912,23 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n"/>
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
       <c r="B26" s="4" t="inlineStr"/>
       <c r="C26" s="4" t="inlineStr"/>
       <c r="D26" t="n">
         <v>10980.81</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n"/>
-    </row>
     <row r="31">
-      <c r="A31" s="4" t="n"/>
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Categoria</t>
@@ -2950,7 +2946,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n"/>
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
@@ -2966,8 +2966,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -2978,8 +2978,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -2990,8 +2990,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="6" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="5" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
@@ -3002,7 +3002,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -3018,7 +3018,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3034,8 +3034,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -3046,8 +3046,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="6" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
@@ -3058,7 +3058,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3074,8 +3074,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
-      <c r="B41" s="6" t="n"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="5" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -3086,7 +3086,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -3102,7 +3102,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -3134,8 +3134,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -3146,7 +3146,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -3162,8 +3162,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
-      <c r="B47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -3174,8 +3174,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
-      <c r="B48" s="6" t="n"/>
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="5" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -3202,8 +3202,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
-      <c r="B50" s="6" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -3230,7 +3230,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -3246,7 +3246,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -3262,7 +3262,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -3278,7 +3278,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -3294,8 +3294,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
-      <c r="B56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
@@ -3306,8 +3306,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
-      <c r="B57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -3318,8 +3318,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
-      <c r="B58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -3330,8 +3330,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
-      <c r="B59" s="5" t="n"/>
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -3342,8 +3342,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -3366,7 +3366,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A7:A25"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B13"/>
@@ -3382,7 +3382,6 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A7:A33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3445,7 +3444,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -3461,8 +3460,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -3473,7 +3472,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -3489,8 +3488,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
@@ -3501,8 +3500,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -3513,8 +3512,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Offerte ofs</t>
@@ -3525,7 +3524,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -3541,8 +3540,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -3553,8 +3552,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -3565,8 +3564,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -3577,7 +3576,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -3593,8 +3592,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="6" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
@@ -3605,7 +3604,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -3621,8 +3620,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -3633,7 +3632,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Sussidi</t>
@@ -3649,7 +3648,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
       <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -3665,8 +3664,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -3731,8 +3730,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -3743,8 +3742,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -3755,8 +3754,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Materiale edile</t>
@@ -3767,8 +3766,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
-      <c r="B36" s="6" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -3779,7 +3778,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3795,7 +3794,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3811,8 +3810,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="6" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -3823,7 +3822,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -3839,7 +3838,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -3855,7 +3854,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -3871,8 +3870,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
-      <c r="B43" s="6" t="n"/>
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="5" t="n"/>
       <c r="C43" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -3883,7 +3882,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -3899,8 +3898,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -3911,7 +3910,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -3927,8 +3926,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
-      <c r="B47" s="6" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="5" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
@@ -3939,7 +3938,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -3955,7 +3954,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -3971,8 +3970,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
-      <c r="B50" s="6" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Meccanico</t>
@@ -3983,7 +3982,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -3999,7 +3998,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4015,8 +4014,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
-      <c r="B53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
@@ -4027,8 +4026,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
-      <c r="B54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -4039,8 +4038,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
-      <c r="B55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -4051,8 +4050,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -4153,7 +4152,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -4169,8 +4168,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -4181,8 +4180,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="6" t="n"/>
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="5" t="n"/>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Mariano</t>
@@ -4193,7 +4192,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -4209,8 +4208,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
@@ -4221,8 +4220,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -4233,7 +4232,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -4249,8 +4248,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -4261,8 +4260,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -4273,8 +4272,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -4285,7 +4284,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -4301,7 +4300,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -4317,8 +4316,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
       <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Occhiali</t>
@@ -4329,8 +4328,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
@@ -4341,7 +4340,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -4357,8 +4356,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="5" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -4369,7 +4368,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
       <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -4385,8 +4384,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -4397,8 +4396,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
       <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -4409,8 +4408,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="n"/>
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
       <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -4475,8 +4474,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -4487,8 +4486,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="5" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -4499,7 +4498,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -4515,7 +4514,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -4531,7 +4530,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -4547,7 +4546,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -4563,8 +4562,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="6" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -4575,7 +4574,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -4591,7 +4590,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -4607,8 +4606,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
-      <c r="B42" s="6" t="n"/>
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Imposte varie</t>
@@ -4619,7 +4618,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -4635,8 +4634,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
-      <c r="B44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
       <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Edif illuminazione</t>
@@ -4647,8 +4646,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Restauratore</t>
@@ -4659,7 +4658,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -4675,7 +4674,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
       <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -4691,7 +4690,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -4707,7 +4706,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4723,8 +4722,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
-      <c r="B50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -4735,8 +4734,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
-      <c r="B51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
       <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -4747,8 +4746,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
-      <c r="B52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
       <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -4759,8 +4758,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
-      <c r="B53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
@@ -4771,8 +4770,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="5" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -4871,7 +4870,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -4887,8 +4886,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -4899,7 +4898,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -4915,7 +4914,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -4931,8 +4930,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Benedizione case</t>
@@ -4943,8 +4942,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Frittate</t>
@@ -4955,8 +4954,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="6" t="n"/>
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="5" t="n"/>
       <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -4967,7 +4966,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
       <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -4983,8 +4982,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -4995,8 +4994,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -5007,8 +5006,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="6" t="n"/>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="5" t="n"/>
       <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -5019,7 +5018,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -5035,7 +5034,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -5051,8 +5050,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
@@ -5063,7 +5062,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5079,8 +5078,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="5" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5091,7 +5090,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
       <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -5107,8 +5106,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -5119,8 +5118,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
       <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -5185,8 +5184,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -5197,8 +5196,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -5209,8 +5208,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -5221,8 +5220,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
-      <c r="B36" s="6" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Offerte p.Orazio Capitolo</t>
@@ -5233,7 +5232,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -5249,8 +5248,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="6" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="5" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Fiori</t>
@@ -5261,7 +5260,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -5277,8 +5276,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
-      <c r="B40" s="6" t="n"/>
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="5" t="n"/>
       <c r="C40" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -5289,7 +5288,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -5305,8 +5304,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
-      <c r="B42" s="6" t="n"/>
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -5317,7 +5316,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -5333,7 +5332,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -5349,8 +5348,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -5361,7 +5360,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -5377,7 +5376,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
       <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -5393,7 +5392,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -5409,7 +5408,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -5425,7 +5424,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Rimborsi</t>
@@ -5441,7 +5440,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -5457,8 +5456,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
-      <c r="B52" s="6" t="n"/>
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="5" t="n"/>
       <c r="C52" s="4" t="inlineStr">
         <is>
           <t>TELECOM</t>
@@ -5469,7 +5468,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -5485,8 +5484,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
-      <c r="B54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Meccanico</t>
@@ -5497,8 +5496,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
-      <c r="B55" s="6" t="n"/>
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="5" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Pompista</t>
@@ -5509,7 +5508,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
       <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -5525,7 +5524,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
       <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -5541,8 +5540,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
-      <c r="B58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -5553,8 +5552,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
-      <c r="B59" s="5" t="n"/>
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -5565,8 +5564,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
-      <c r="B60" s="5" t="n"/>
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -5577,8 +5576,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
-      <c r="B61" s="5" t="n"/>
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
       <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
@@ -5589,8 +5588,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
+      <c r="A62" s="5" t="n"/>
+      <c r="B62" s="5" t="n"/>
       <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -5692,7 +5691,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -5708,8 +5707,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -5720,7 +5719,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -5736,8 +5735,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Frittate</t>
@@ -5748,8 +5747,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
@@ -5760,8 +5759,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -5772,7 +5771,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -5788,8 +5787,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -5800,8 +5799,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -5812,8 +5811,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -5824,7 +5823,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -5840,7 +5839,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -5856,7 +5855,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5872,8 +5871,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5884,7 +5883,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -5900,8 +5899,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -5966,8 +5965,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Ferramenta</t>
@@ -5978,7 +5977,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -5994,8 +5993,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Gasolio agricolo</t>
@@ -6006,8 +6005,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
-      <c r="B36" s="6" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Semi, Ortaggi</t>
@@ -6018,7 +6017,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -6034,8 +6033,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="6" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="5" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -6046,7 +6045,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -6062,7 +6061,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -6078,8 +6077,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
-      <c r="B41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Carburante</t>
@@ -6090,8 +6089,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
-      <c r="B42" s="6" t="n"/>
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -6102,7 +6101,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -6118,8 +6117,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
-      <c r="B44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
       <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -6130,8 +6129,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -6142,7 +6141,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -6158,8 +6157,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
-      <c r="B47" s="6" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="5" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Imposte varie</t>
@@ -6170,7 +6169,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -6186,7 +6185,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -6202,7 +6201,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -6218,8 +6217,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
-      <c r="B51" s="6" t="n"/>
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="5" t="n"/>
       <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Meccanico</t>
@@ -6230,7 +6229,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -6246,8 +6245,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
-      <c r="B53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
@@ -6258,8 +6257,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
-      <c r="B54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -6270,8 +6269,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
-      <c r="B55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -6282,8 +6281,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
-      <c r="B56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -6294,8 +6293,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
-      <c r="B57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Olio</t>
@@ -6306,8 +6305,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -6408,7 +6407,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -6424,8 +6423,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -6436,8 +6435,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -6448,8 +6447,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="6" t="n"/>
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="5" t="n"/>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -6460,7 +6459,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -6476,7 +6475,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -6492,7 +6491,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -6562,8 +6561,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Fotocopiatrice+contr.assistenza</t>
@@ -6574,8 +6573,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="5" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale edile</t>
@@ -6586,7 +6585,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -6602,7 +6601,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -6618,7 +6617,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -6634,7 +6633,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -6650,7 +6649,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -6666,7 +6665,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>

--- a/conti_camerino_multiple.xlsx
+++ b/conti_camerino_multiple.xlsx
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>141.73</v>
+        <v>471.22</v>
       </c>
     </row>
     <row r="3">
@@ -563,11 +563,11 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Centerglass</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38.56</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4">
@@ -575,55 +575,47 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>240.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
-      <c r="B5" s="3" t="n"/>
+      <c r="B5" s="2" t="n"/>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Stampante_Fotocopiatrice</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55.4</v>
+        <v>2832.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Acquisti: Chiesa</t>
-        </is>
-      </c>
+      <c r="B6" s="2" t="n"/>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Ceri e Candele</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Acquisti: Orto, Animali</t>
-        </is>
-      </c>
+      <c r="B7" s="2" t="n"/>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Attrezzi agricoli manutenzione</t>
+          <t>Noviziato</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>823</v>
+        <v>41.12</v>
       </c>
     </row>
     <row r="8">
@@ -631,283 +623,251 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Manutenzione api</t>
+          <t>Prima rata abbattitore temperatura</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>630</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
-      <c r="B9" s="3" t="n"/>
+      <c r="B9" s="2" t="n"/>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Medicine animali - piante</t>
+          <t>Sartoria</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>150.36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
+      <c r="B10" s="2" t="n"/>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Stampante</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100.32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="3" t="n"/>
+      <c r="B11" s="2" t="n"/>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Libri</t>
+          <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>235.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Elargizioni</t>
-        </is>
-      </c>
+      <c r="B12" s="3" t="n"/>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Beneficenza 5%</t>
+          <t>Tabaccaio</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>130</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Energia Elettrica</t>
+          <t>Acquisti: Chiesa</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>ENEL</t>
+          <t>Aspersorio e messalino</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1185.57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Ferie e Viaggi</t>
-        </is>
-      </c>
+      <c r="B14" s="2" t="n"/>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Carboncini e Incenso</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1070.56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
-      <c r="B15" s="3" t="n"/>
+      <c r="B15" s="2" t="n"/>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Viaggi-Autostrada-Parcheggio</t>
+          <t>Ceri e Candele</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Igiene</t>
-        </is>
-      </c>
+      <c r="B16" s="2" t="n"/>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Detersivi</t>
+          <t>Fiori</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>135.26</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Igiene personale</t>
+          <t>Paramenti liturigici</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="B18" s="3" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Lavanderia</t>
+          <t>Acquisto motosega Sandro</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.5</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Imposte</t>
-        </is>
-      </c>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Imposte bancarie</t>
+          <t>Attrezzi agricoli</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>113.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="3" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Passaporto</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>116</v>
+        <v>1514.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Posta e cancelleria</t>
-        </is>
-      </c>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Cancelleria</t>
+          <t>Batteria trattore e caricabatteria</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71.95</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>Telefono</t>
-        </is>
-      </c>
+      <c r="B22" s="2" t="n"/>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Scheda telefonica</t>
+          <t>Gasolio agricolo</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Veicoli a motore</t>
-        </is>
-      </c>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Bollo Auto</t>
+          <t>Manutenzione api</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>243.56</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Vestiario</t>
-        </is>
-      </c>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Sandali - scarpe</t>
+          <t>Medicine animali - piante</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>150.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>Vitto</t>
-        </is>
-      </c>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Alimentari</t>
+          <t>Semi, Ortaggi</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>542.5599999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
+      <c r="B26" s="3" t="n"/>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Bartolazzi</t>
+          <t>Vitellini</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Carne</t>
+          <t>Abbonamenti</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>344.36</v>
+        <v>1667.89</v>
       </c>
     </row>
     <row r="28">
@@ -915,11 +875,11 @@
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Frutta e Verdura</t>
+          <t>Abbonamento RAI</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>255.16</v>
+        <v>594.33</v>
       </c>
     </row>
     <row r="29">
@@ -927,47 +887,1231 @@
       <c r="B29" s="2" t="n"/>
       <c r="C29" s="1" t="inlineStr">
         <is>
+          <t>Abbonamento Sky</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Convegni</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Convegno formatori</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>906.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Quotidiani</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Treccani</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Curia provinciale</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Curia provinciale</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>11184</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Tassa curia generale</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Domestici</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Cuoca</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8892.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="3" t="n"/>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Regalie</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4541.8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="3" t="n"/>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>ENERGIT</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2339.71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Aereo</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>615.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Aereo Etiopia</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5737.18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Treno</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>133.35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>314.64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>799.0700000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>104.01</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="3" t="n"/>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Personale</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Canone RAI</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>407.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="2" t="n"/>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Carta d'identità</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Coldiretti</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>Commissioni bancarie</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>106.51</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>INAIL Collaudo caldaia</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>942.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>296.93</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Imposte varie</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>330.23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Iscrizione Coldiretti</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>Passaggio proprietà trattore</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Passaporto</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="3" t="n"/>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>Tassa acquedotto</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Boscaiolo</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>Elettricista</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>Idraulico</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>Manutenzione Convento</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>Muratore</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="3" t="n"/>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>Restauratore</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Posta e Cancelleria</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Francobolli</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="3" t="n"/>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>Posta</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>75.09999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Rimborsi</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n"/>
+      <c r="B76" s="2" t="n"/>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>Provincia Abbruzzo</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1201.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>Provincia Abruzzo</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>8456.889999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>Provincia Romana</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>10011.7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>Provincia Sardegna</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1601.86</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>Provincia Toscana</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>8946.75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="3" t="n"/>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Provincia Umbra</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2823.13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Riscaldamento</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>GOLDENGAS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>753.67</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>Gasolio</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>12034.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="3" t="n"/>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>Total-Gaz</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1771.32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>Scheda telefonica</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="3" t="n"/>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>431.22</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Veicoli a Motore</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>Gommista</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="3" t="n"/>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>Assicurazione</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>4473.16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>Autolavaggio</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>989.42</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>Bollo Panda Grigia</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n"/>
+      <c r="B94" s="2" t="n"/>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>Bollo Panda bianca</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>Bollo Panda nuova</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>122.76</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>Carrozziere</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>Contravvenzioni</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>Elettrauto</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>Foglietto La Domenica 2014</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n"/>
+      <c r="B101" s="2" t="n"/>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>Gommista</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n"/>
+      <c r="B102" s="2" t="n"/>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n"/>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>Prodotti auto</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>Indumenti</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>274.3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>Mutante</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>Sacco a pelo</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n"/>
+      <c r="B107" s="2" t="n"/>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>Sandali</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="3" t="n"/>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>Sandali - scarpe</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n"/>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>3469.83</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n"/>
+      <c r="B110" s="2" t="n"/>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>Bartolazzi</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n"/>
+      <c r="B111" s="2" t="n"/>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>Bibite e gelati</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>84.11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n"/>
+      <c r="B112" s="2" t="n"/>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2379.53</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>Dea Market</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>823.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>973.9400000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>Latte</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>40.32</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n"/>
+      <c r="B116" s="2" t="n"/>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="D116" t="n">
+        <v>1117.03</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n"/>
+      <c r="B117" s="2" t="n"/>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>Latticini</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>276.34</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n"/>
+      <c r="B118" s="2" t="n"/>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>Olio</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n"/>
+      <c r="B119" s="2" t="n"/>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>Pane, Uova, Farina</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1235.27</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n"/>
+      <c r="B120" s="2" t="n"/>
+      <c r="C120" s="1" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="D120" t="n">
+        <v>984.52</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n"/>
+      <c r="B121" s="2" t="n"/>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>Teodori (Farina ….)</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>244.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n"/>
+      <c r="B122" s="3" t="n"/>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>pesce</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>262.32</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" t="n">
-        <v>7004.4</v>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" t="n">
+        <v>144689.16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A30"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B30"/>
+  <mergeCells count="20">
+    <mergeCell ref="A2:A122"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B109:B122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -979,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,7 +2170,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>544</v>
+        <v>4066.05</v>
       </c>
     </row>
     <row r="3">
@@ -1042,7 +2186,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1060.05</v>
+        <v>4875.18</v>
       </c>
     </row>
     <row r="4">
@@ -1054,79 +2198,83 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1028.81</v>
+        <v>3801.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Eccedenza Cassa</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Eccedenza Cassa</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52.36</v>
+        <v>1737.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Offerte</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Offerta eccedenze Messa</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>171.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Messe celebrate</t>
+        </is>
+      </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Offerte libere</t>
+          <t>Messe celebrate</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2760</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
-      <c r="B8" s="3" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Presepio</t>
+          <t>Accoglienza</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>256</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Pensioni</t>
-        </is>
-      </c>
+      <c r="B9" s="2" t="n"/>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Fr Tommaso Bellesi</t>
+          <t>Accoglienza - ospiti</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>635</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="10">
@@ -1134,11 +2282,11 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Fr. Anastasio Artegiani</t>
+          <t>Cena Ofs</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>635</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11">
@@ -1146,95 +2294,83 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Fr. Giulio Criminesi</t>
+          <t>Crispiero s.Antonio</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>635</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
-      <c r="B12" s="3" t="n"/>
+      <c r="B12" s="2" t="n"/>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Fr. Mario Pigini</t>
+          <t>Museo</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>635</v>
+        <v>1325.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Salute</t>
-        </is>
-      </c>
+      <c r="B13" s="2" t="n"/>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Offerta eccedenze Messa</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>226.89</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="B14" s="3" t="n"/>
+      <c r="B14" s="2" t="n"/>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Sanitaria</t>
+          <t>Offerte libere</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.2</v>
+        <v>15203.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Servizi religiosi</t>
-        </is>
-      </c>
+      <c r="B15" s="2" t="n"/>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Loreto</t>
+          <t>Ofs 5 gennaio</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="B16" s="3" t="n"/>
+      <c r="B16" s="2" t="n"/>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Servizi religiosi</t>
+          <t>Ordine Francescano Secolare</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Vendite varie</t>
-        </is>
-      </c>
+      <c r="B17" s="2" t="n"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Marmellata</t>
+          <t>Presepio</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>4137.21</v>
       </c>
     </row>
     <row r="18">
@@ -1242,11 +2378,11 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Mercatino convento</t>
+          <t>Questua</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>920</v>
+        <v>1729.73</v>
       </c>
     </row>
     <row r="19">
@@ -1254,46 +2390,443 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>offerte (Sig Carusi Cesare)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
+      <c r="A20" s="2" t="n"/>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="1" t="inlineStr">
         <is>
+          <t>zia Pia</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Tridui</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Assistenza sanitaria Toussaint</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>387.03</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1568.77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Occhiali</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Psicologo</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Sanitaria</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Ticket - esami</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>160.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Visita medica</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Ambro</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Confessioni Pievetorina</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Confessioni Suore</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Parrocchie</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Servizi in Diocesi</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Sussidi</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>AGEA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>544.96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="3" t="n"/>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Tesserino Alimentare</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Abiti cuciti</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Bancarelle missionarie</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Maiale</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Mercatino convento</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Miele</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Pane, Uova</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Polli</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="3" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>326.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="D51" t="n">
+        <v>3261.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" t="n">
-        <v>10980.81</v>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" t="n">
+        <v>102266.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A20"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A51"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1305,7 +2838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D61"/>
+  <dimension ref="A6:D184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +2885,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>544</v>
+        <v>4066.05</v>
       </c>
     </row>
     <row r="8">
@@ -1368,7 +2901,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1060.05</v>
+        <v>4875.18</v>
       </c>
     </row>
     <row r="9">
@@ -1380,79 +2913,83 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1028.81</v>
+        <v>3801.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Eccedenza Cassa</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Eccedenza Cassa</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52.36</v>
+        <v>1737.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Offerte</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Offerta eccedenze Messa</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>171.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Messe celebrate</t>
+        </is>
+      </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Offerte libere</t>
+          <t>Messe celebrate</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2760</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Presepio</t>
+          <t>Accoglienza</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>256</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Pensioni</t>
-        </is>
-      </c>
+      <c r="B14" s="4" t="n"/>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Fr Tommaso Bellesi</t>
+          <t>Accoglienza - ospiti</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>635</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="15">
@@ -1460,11 +2997,11 @@
       <c r="B15" s="4" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Fr. Anastasio Artegiani</t>
+          <t>Cena Ofs</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>635</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16">
@@ -1472,11 +3009,11 @@
       <c r="B16" s="4" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Fr. Giulio Criminesi</t>
+          <t>Crispiero s.Antonio</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>635</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1484,27 +3021,23 @@
       <c r="B17" s="4" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Fr. Mario Pigini</t>
+          <t>Museo</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>635</v>
+        <v>1325.26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Salute</t>
-        </is>
-      </c>
+      <c r="B18" s="4" t="n"/>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Offerta eccedenze Messa</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>226.89</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19">
@@ -1512,27 +3045,23 @@
       <c r="B19" s="4" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Sanitaria</t>
+          <t>Offerte libere</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.2</v>
+        <v>15203.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Servizi religiosi</t>
-        </is>
-      </c>
+      <c r="B20" s="4" t="n"/>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Loreto</t>
+          <t>Ofs 5 gennaio</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -1540,27 +3069,23 @@
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Servizi religiosi</t>
+          <t>Ordine Francescano Secolare</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Vendite varie</t>
-        </is>
-      </c>
+      <c r="B22" s="4" t="n"/>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Marmellata</t>
+          <t>Presepio</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>4137.21</v>
       </c>
     </row>
     <row r="23">
@@ -1568,11 +3093,11 @@
       <c r="B23" s="4" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Mercatino convento</t>
+          <t>Questua</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>920</v>
+        <v>1729.73</v>
       </c>
     </row>
     <row r="24">
@@ -1580,11 +3105,11 @@
       <c r="B24" s="4" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>offerte (Sig Carusi Cesare)</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="25">
@@ -1592,65 +3117,107 @@
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Vino</t>
+          <t>zia Pia</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>326.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
       <c r="D26" t="n">
-        <v>10980.81</v>
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Tridui</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
+      <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Categoria</t>
+          <t>Salute</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
+          <t>Assistenza sanitaria Toussaint</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>387.03</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Acquisti convento</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="4" t="n"/>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Casalinghi</t>
+          <t>Medicine</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>141.73</v>
+        <v>1568.77</v>
       </c>
     </row>
     <row r="33">
@@ -1658,11 +3225,11 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Occhiali</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>38.56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1670,11 +3237,11 @@
       <c r="B34" s="4" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Psicologo</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>40</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35">
@@ -1682,55 +3249,51 @@
       <c r="B35" s="4" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Stampante_Fotocopiatrice</t>
+          <t>Sanitaria</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>55.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Acquisti: Chiesa</t>
-        </is>
-      </c>
+      <c r="B36" s="4" t="n"/>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Ceri e Candele</t>
+          <t>Ticket - esami</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>160.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Acquisti: Orto, Animali</t>
-        </is>
-      </c>
+      <c r="B37" s="4" t="n"/>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Attrezzi agricoli manutenzione</t>
+          <t>Visita medica</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>823</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n"/>
-      <c r="B38" s="4" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Manutenzione api</t>
+          <t>Ambro</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>630</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
@@ -1738,27 +3301,23 @@
       <c r="B39" s="4" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Medicine animali - piante</t>
+          <t>Confessioni Pievetorina</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>150.36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
+      <c r="B40" s="4" t="n"/>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Confessioni Suore</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>100.32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1766,99 +3325,91 @@
       <c r="B41" s="4" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Libri</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n"/>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Elargizioni</t>
-        </is>
-      </c>
+      <c r="B42" s="4" t="n"/>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Beneficenza 5%</t>
+          <t>Parrocchie</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>130</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Energia Elettrica</t>
-        </is>
-      </c>
+      <c r="B43" s="4" t="n"/>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>ENEL</t>
+          <t>Servizi in Diocesi</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1185.57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Ferie e Viaggi</t>
-        </is>
-      </c>
+      <c r="B44" s="4" t="n"/>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Servizi religiosi</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1070.56</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n"/>
-      <c r="B45" s="4" t="n"/>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Sussidi</t>
+        </is>
+      </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Viaggi-Autostrada-Parcheggio</t>
+          <t>AGEA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.5</v>
+        <v>544.96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Igiene</t>
-        </is>
-      </c>
+      <c r="B46" s="4" t="n"/>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Detersivi</t>
+          <t>Tesserino Alimentare</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>135.26</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n"/>
-      <c r="B47" s="4" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Igiene personale</t>
+          <t>Abiti cuciti</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13.75</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48">
@@ -1866,27 +3417,23 @@
       <c r="B48" s="4" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Lavanderia</t>
+          <t>Bancarelle missionarie</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5.5</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n"/>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Imposte</t>
-        </is>
-      </c>
+      <c r="B49" s="4" t="n"/>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Imposte bancarie</t>
+          <t>Maiale</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>113.4</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="50">
@@ -1894,91 +3441,71 @@
       <c r="B50" s="4" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Passaporto</t>
+          <t>Marmellata</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>116</v>
+        <v>757</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n"/>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Posta e cancelleria</t>
-        </is>
-      </c>
+      <c r="B51" s="4" t="n"/>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Cancelleria</t>
+          <t>Mercatino convento</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>71.95</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Telefono</t>
-        </is>
-      </c>
+      <c r="B52" s="4" t="n"/>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Scheda telefonica</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>580</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n"/>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Veicoli a motore</t>
-        </is>
-      </c>
+      <c r="B53" s="4" t="n"/>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Bollo Auto</t>
+          <t>Pane, Uova</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>243.56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n"/>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Vestiario</t>
-        </is>
-      </c>
+      <c r="B54" s="4" t="n"/>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Sandali - scarpe</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>24</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n"/>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Vitto</t>
-        </is>
-      </c>
+      <c r="B55" s="4" t="n"/>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Alimentari</t>
+          <t>Polli</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>542.5599999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1986,90 +3513,1629 @@
       <c r="B56" s="4" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3261.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr"/>
+      <c r="C57" s="4" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>102266.6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>471.22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Centerglass</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>240.36</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2832.84</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>343.9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>Noviziato</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>41.12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Prima rata abbattitore temperatura</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Sartoria</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Stampante</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Stampante_Fotocopiatrice</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>235.39</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>Tabaccaio</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Aspersorio e messalino</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Carboncini e Incenso</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>Fiori</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>Paramenti liturigici</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Acquisto motosega Sandro</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>Attrezzi agricoli</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>Attrezzi agricoli manutenzione</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1514.03</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>Batteria trattore e caricabatteria</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>Gasolio agricolo</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione api</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>Medicine animali - piante</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>150.36</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Semi, Ortaggi</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>Vitellini</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n"/>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamenti</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1667.89</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n"/>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamento RAI</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>594.33</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n"/>
+      <c r="B90" s="4" t="n"/>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamento Sky</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n"/>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>Convegni</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n"/>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>Convegno formatori</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n"/>
+      <c r="B93" s="4" t="n"/>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n"/>
+      <c r="B94" s="4" t="n"/>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>906.2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n"/>
+      <c r="B95" s="4" t="n"/>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>Quotidiani</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n"/>
+      <c r="B96" s="4" t="n"/>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>Treccani</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n"/>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>Curia provinciale</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>Curia provinciale</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>11184</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n"/>
+      <c r="B98" s="4" t="n"/>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>Tassa curia generale</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n"/>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>Domestici</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>Cuoca</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n"/>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>8892.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n"/>
+      <c r="B101" s="4" t="n"/>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>Regalie</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="n"/>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>4541.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="n"/>
+      <c r="B103" s="4" t="n"/>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>ENERGIT</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2339.71</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="n"/>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>Aereo</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>615.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n"/>
+      <c r="B105" s="4" t="n"/>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>Aereo Etiopia</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="n"/>
+      <c r="B106" s="4" t="n"/>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="n"/>
+      <c r="B107" s="4" t="n"/>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>5737.18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="n"/>
+      <c r="B108" s="4" t="n"/>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t>Treno</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>133.35</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="n"/>
+      <c r="B109" s="4" t="n"/>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>314.64</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="n"/>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>799.0700000000001</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="n"/>
+      <c r="B111" s="4" t="n"/>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>104.01</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="n"/>
+      <c r="B112" s="4" t="n"/>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="n"/>
+      <c r="B113" s="4" t="n"/>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>Personale</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="n"/>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>Canone RAI</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>407.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="n"/>
+      <c r="B115" s="4" t="n"/>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>Carta d'identità</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="n"/>
+      <c r="B116" s="4" t="n"/>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>Coldiretti</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="n"/>
+      <c r="B117" s="4" t="n"/>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>Commissioni bancarie</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>106.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="n"/>
+      <c r="B118" s="4" t="n"/>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>INAIL Collaudo caldaia</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>942.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="n"/>
+      <c r="B119" s="4" t="n"/>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="n"/>
+      <c r="B120" s="4" t="n"/>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>296.93</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="n"/>
+      <c r="B121" s="4" t="n"/>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>Imposte varie</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>330.23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="n"/>
+      <c r="B122" s="4" t="n"/>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>Iscrizione Coldiretti</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="n"/>
+      <c r="B123" s="4" t="n"/>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>Passaggio proprietà trattore</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="n"/>
+      <c r="B124" s="4" t="n"/>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>Passaporto</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="n"/>
+      <c r="B125" s="4" t="n"/>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>Tassa acquedotto</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="n"/>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>Boscaiolo</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="n"/>
+      <c r="B127" s="4" t="n"/>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>Elettricista</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="n"/>
+      <c r="B128" s="4" t="n"/>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>Idraulico</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="n"/>
+      <c r="B129" s="4" t="n"/>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione Convento</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="n"/>
+      <c r="B130" s="4" t="n"/>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>Muratore</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="n"/>
+      <c r="B131" s="4" t="n"/>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>Restauratore</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="n"/>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>Posta e Cancelleria</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="n"/>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="n"/>
+      <c r="B134" s="4" t="n"/>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>Francobolli</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="n"/>
+      <c r="B135" s="4" t="n"/>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>Posta</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>75.09999999999999</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="n"/>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Rimborsi</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="n"/>
+      <c r="B137" s="4" t="n"/>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>Provincia Abbruzzo</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1201.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="n"/>
+      <c r="B138" s="4" t="n"/>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>Provincia Abruzzo</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>8456.889999999999</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="n"/>
+      <c r="B139" s="4" t="n"/>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>Provincia Romana</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>10011.7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="n"/>
+      <c r="B140" s="4" t="n"/>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>Provincia Sardegna</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1601.86</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="n"/>
+      <c r="B141" s="4" t="n"/>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>Provincia Toscana</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>8946.75</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="n"/>
+      <c r="B142" s="4" t="n"/>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>Provincia Umbra</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2823.13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="n"/>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Riscaldamento</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>GOLDENGAS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>753.67</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="n"/>
+      <c r="B144" s="4" t="n"/>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>Gasolio</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>12034.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="n"/>
+      <c r="B145" s="4" t="n"/>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>Total-Gaz</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1771.32</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="n"/>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>Scheda telefonica</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="n"/>
+      <c r="B147" s="4" t="n"/>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>431.22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="n"/>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a Motore</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="n"/>
+      <c r="B149" s="4" t="n"/>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>Gommista</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="n"/>
+      <c r="B150" s="4" t="n"/>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="n"/>
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>Assicurazione</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4473.16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="n"/>
+      <c r="B152" s="4" t="n"/>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>Autolavaggio</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="n"/>
+      <c r="B153" s="4" t="n"/>
+      <c r="C153" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>989.42</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="n"/>
+      <c r="B154" s="4" t="n"/>
+      <c r="C154" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Panda Grigia</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="n"/>
+      <c r="B155" s="4" t="n"/>
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Panda bianca</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="n"/>
+      <c r="B156" s="4" t="n"/>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Panda nuova</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>122.76</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="n"/>
+      <c r="B157" s="4" t="n"/>
+      <c r="C157" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="n"/>
+      <c r="B158" s="4" t="n"/>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>Carrozziere</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="n"/>
+      <c r="B159" s="4" t="n"/>
+      <c r="C159" s="4" t="inlineStr">
+        <is>
+          <t>Contravvenzioni</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="n"/>
+      <c r="B160" s="4" t="n"/>
+      <c r="C160" s="4" t="inlineStr">
+        <is>
+          <t>Elettrauto</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="n"/>
+      <c r="B161" s="4" t="n"/>
+      <c r="C161" s="4" t="inlineStr">
+        <is>
+          <t>Foglietto La Domenica 2014</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="n"/>
+      <c r="B162" s="4" t="n"/>
+      <c r="C162" s="4" t="inlineStr">
+        <is>
+          <t>Gommista</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="n"/>
+      <c r="B163" s="4" t="n"/>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="n"/>
+      <c r="B164" s="4" t="n"/>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>Prodotti auto</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="n"/>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>Indumenti</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>274.3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="n"/>
+      <c r="B166" s="4" t="n"/>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>Mutante</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="n"/>
+      <c r="B167" s="4" t="n"/>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t>Sacco a pelo</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="n"/>
+      <c r="B168" s="4" t="n"/>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>Sandali</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="n"/>
+      <c r="B169" s="4" t="n"/>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>Sandali - scarpe</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="n"/>
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C170" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>3469.83</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="n"/>
+      <c r="B171" s="4" t="n"/>
+      <c r="C171" s="4" t="inlineStr">
+        <is>
           <t>Bartolazzi</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n"/>
-      <c r="B57" s="4" t="n"/>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D171" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="n"/>
+      <c r="B172" s="4" t="n"/>
+      <c r="C172" s="4" t="inlineStr">
+        <is>
+          <t>Bibite e gelati</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>84.11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="n"/>
+      <c r="B173" s="4" t="n"/>
+      <c r="C173" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>344.36</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="n"/>
-      <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="D173" t="n">
+        <v>2379.53</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="n"/>
+      <c r="B174" s="4" t="n"/>
+      <c r="C174" s="4" t="inlineStr">
+        <is>
+          <t>Dea Market</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>823.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="n"/>
+      <c r="B175" s="4" t="n"/>
+      <c r="C175" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>255.16</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="n"/>
-      <c r="B59" s="4" t="n"/>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D175" t="n">
+        <v>973.9400000000001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="n"/>
+      <c r="B176" s="4" t="n"/>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>Latte</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>40.32</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="n"/>
+      <c r="B177" s="4" t="n"/>
+      <c r="C177" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="n"/>
-      <c r="B60" s="4" t="n"/>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="D177" t="n">
+        <v>1117.03</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="n"/>
+      <c r="B178" s="4" t="n"/>
+      <c r="C178" s="4" t="inlineStr">
+        <is>
+          <t>Latticini</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>276.34</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="n"/>
+      <c r="B179" s="4" t="n"/>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>Olio</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="n"/>
+      <c r="B180" s="4" t="n"/>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>Pane, Uova, Farina</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1235.27</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="n"/>
+      <c r="B181" s="4" t="n"/>
+      <c r="C181" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="D181" t="n">
+        <v>984.52</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="n"/>
+      <c r="B182" s="4" t="n"/>
+      <c r="C182" s="4" t="inlineStr">
+        <is>
+          <t>Teodori (Farina ….)</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>244.3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="n"/>
+      <c r="B183" s="4" t="n"/>
+      <c r="C183" s="4" t="inlineStr">
+        <is>
+          <t>pesce</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>262.32</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr"/>
-      <c r="C61" s="4" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>7004.4</v>
+      <c r="B184" s="4" t="inlineStr"/>
+      <c r="C184" s="4" t="inlineStr"/>
+      <c r="D184" t="n">
+        <v>144689.16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A7:A25"/>
+  <mergeCells count="28">
+    <mergeCell ref="A7:A56"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A32:A60"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A63:A183"/>
+    <mergeCell ref="B63:B73"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B125"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B164"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B170:B183"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
